--- a/TXT/Reprise_données_Utilisateurs/reprise_de_données-Util-.xlsx
+++ b/TXT/Reprise_données_Utilisateurs/reprise_de_données-Util-.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise données Utilisateurs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Utilisateurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16F7E5-A1B0-426C-99A4-0231499681B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE69FEC8-E1AE-4D06-8342-05AEAB4AB2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur" sheetId="1" r:id="rId1"/>
-    <sheet name="Demande" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>BD source (Access)</t>
   </si>
@@ -60,39 +59,15 @@
     <t>C_USR (numérique)</t>
   </si>
   <si>
-    <t>Z_NOM (varchar 20)</t>
-  </si>
-  <si>
     <t>TC_Utilisateur</t>
   </si>
   <si>
     <t>IdUtil (numérique)</t>
   </si>
   <si>
-    <t>nom (varchar 50)</t>
-  </si>
-  <si>
-    <t>Pas de récupération. Dans la cible c'est une séquence</t>
-  </si>
-  <si>
     <t>Récup sans transformation</t>
   </si>
   <si>
-    <t>prenom (varchar 50)</t>
-  </si>
-  <si>
-    <t>C_SER (varchar 3)</t>
-  </si>
-  <si>
-    <t>Z_Prenom (varchar 15)</t>
-  </si>
-  <si>
-    <t>User (varchar 5)</t>
-  </si>
-  <si>
-    <t>Pwd (varchar 9)</t>
-  </si>
-  <si>
     <t>Droit (numérique)</t>
   </si>
   <si>
@@ -102,9 +77,6 @@
     <t>S_users (numérique)</t>
   </si>
   <si>
-    <t>Actif (char 3) = Booléen</t>
-  </si>
-  <si>
     <t>C_prs (Oui/Non) = Booléen</t>
   </si>
   <si>
@@ -114,30 +86,9 @@
     <t>cll_siga  (Oui/Non) = Booléen</t>
   </si>
   <si>
-    <t>Matricule (char 5)</t>
-  </si>
-  <si>
-    <t>Recup sans transformation</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC_Utilisateur </t>
   </si>
   <si>
-    <t>email (varchar 50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_users </t>
-  </si>
-  <si>
-    <t>passwd (varchar 70)</t>
-  </si>
-  <si>
-    <t>Pas de récupération == Nouvelle colonne</t>
-  </si>
-  <si>
-    <t>Recup + Changement du libellé + valeur typologie</t>
-  </si>
-  <si>
     <t>Pas de récupération</t>
   </si>
   <si>
@@ -153,9 +104,6 @@
     <t>TMA_Util</t>
   </si>
   <si>
-    <t>Util (varchar 25) = Nom de l'utilisateur</t>
-  </si>
-  <si>
     <t xml:space="preserve">ddb_val </t>
   </si>
   <si>
@@ -171,17 +119,71 @@
     <t>non renseigné</t>
   </si>
   <si>
-    <t>Recup + Dans la cible c'est une clé étrangère</t>
-  </si>
-  <si>
-    <t>Pas de récupération. Dans la source et la cible c'est une clé étrangère</t>
+    <t>Pwd (text court (9) )</t>
+  </si>
+  <si>
+    <t>Récupe avec transformation. Dans la source et la cible c'est une clé étrangère</t>
+  </si>
+  <si>
+    <t>D_users (numérique)</t>
+  </si>
+  <si>
+    <t>Recupe avec transformation,+ Dans la cible c'est une clé étrangère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recupe sans transformation </t>
+  </si>
+  <si>
+    <t>Récupe avec transformation</t>
+  </si>
+  <si>
+    <t>Récupe sans transformation</t>
+  </si>
+  <si>
+    <t>Z_NOM (text court (20) )</t>
+  </si>
+  <si>
+    <t>Z_Prenom (text court (15) )</t>
+  </si>
+  <si>
+    <t>C_SER (text court (3) )</t>
+  </si>
+  <si>
+    <t>nom (varchar (50) )</t>
+  </si>
+  <si>
+    <t>prenom (varchar (50) )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actif (char (3) ) </t>
+  </si>
+  <si>
+    <t>User (text court (5) )</t>
+  </si>
+  <si>
+    <t>Matricule (char (5) )</t>
+  </si>
+  <si>
+    <t>passwd (varchar (70) )</t>
+  </si>
+  <si>
+    <t>Util (varchar (25) ) = Nom de l'utilisateur</t>
+  </si>
+  <si>
+    <t>email (varchar (50) )</t>
+  </si>
+  <si>
+    <t>Récup sans transformation. Dans la cible c'est une séquence</t>
+  </si>
+  <si>
+    <t>Nouvelle colonne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +219,19 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,12 +298,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,7 +655,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,15 +668,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -676,7 +693,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -686,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,16 +717,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,16 +734,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,16 +768,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,16 +785,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,16 +802,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,16 +819,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,16 +836,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,16 +853,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,16 +870,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,39 +893,39 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,51 +937,51 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -975,16 +992,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D569-0A44-41AC-9C92-446196868A69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>